--- a/similarities/split_global/harmonic_similarity_timestamps_105.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_105.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,138 +484,152 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A:min', 'G#:dim7', 'A:min', 'G#:dim7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:min', 'B:dim7/C', 'C:min', 'B:dim7/C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:30.380000')]</t>
+          <t>('0:00:19.600000', '0:00:25.160000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+          <t>('0:00:01.260000', '0:00:07.300000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=19.6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=1.26</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>isophonics_128</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:01:04.980000')]</t>
+          <t>('0:00:10.634761', '0:00:15.986961')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:29.220000', '0:01:03.280000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=10.634761</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=29.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['A:7', 'D', 'A']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:16.560000', '0:01:34.120000')]</t>
+          <t>('0:00:58.120000', '0:01:02.720000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+          <t>('0:00:43.926916', '0:00:50.765192')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=58.12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=43.926916</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -623,463 +637,499 @@
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_4</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Eb:maj6', 'F:min7', 'Bb:7'], ['Eb:maj6', 'F:7', 'Bb:7']]</t>
+          <t>['C', 'G/3', 'C', 'G/3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:min7', 'Eb:7'], ['F:min7', 'Bb:7', 'Eb:7']]</t>
+          <t>['A', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:18.960000', '0:00:22.730000'), ('0:00:07.650000', '0:00:18.960000')]</t>
+          <t>('0:02:10.148000', '0:02:11.689000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:22.570000', '0:00:28.190000'), ('0:01:39.160000', '0:01:44.820000')]</t>
+          <t>('0:00:00.421247', '0:00:07.505864')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=18.96', 'https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=7.65']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=130.148</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=22.57', 'https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=99.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'D:maj'], ['D:7', 'G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:maj'], ['G#:7', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:43.660000', '0:00:47.360000'), ('0:00:44.860000', '0:00:48')]</t>
+          <t>('0:01:40.240000', '0:01:42.380000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:07.920000', '0:00:10.200000'), ('0:00:08.480000', '0:00:10.780000')]</t>
+          <t>('0:00:32.080000', '0:00:45.580000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=43.66', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=44.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=100.24</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=7.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=8.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min', 'A#:maj'], ['D#:min', 'A#:maj', 'D#:min'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:12.960000', '0:00:17.820000'), ('0:00:00.360000', '0:00:05.060000'), ('0:01:58.400000', '0:02:01.720000')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:37.120000', '0:00:40.060000'), ('0:00:10.260000', '0:00:15.940000'), ('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=12.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=118.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=37.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+          <t>('0:00:24.280000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
+          <t>('0:01:59.320000', '0:02:01.920000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=24.28</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=119.32</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:00.400000', '0:00:09.040000')]</t>
+          <t>('0:00:30.020000', '0:00:32.120000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:36.400000', '0:00:41.700000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=0.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=30.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:02.081000', '0:00:10.249000')]</t>
+          <t>('0:00:24.820000', '0:00:59.740000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:25.620000', '0:00:33.760000')]</t>
+          <t>('0:00:11.740000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=2.081']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=24.82</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=25.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=11.74</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:maj6']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:01.630000', '0:00:03.680000')]</t>
+          <t>('0:00:18.060000', '0:00:20.600000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:20.840000', '0:00:24.660000')]</t>
+          <t>('0:00:15.300000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=1.63']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=18.06</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=20.84']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:19.980000', '0:00:28.900000')]</t>
+          <t>('0:00:16.580000', '0:00:22.660000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.680000', '0:00:02.980000')]</t>
+          <t>('0:00:42.360000', '0:00:50.360000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>['G/3', 'G:maj', 'C:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:hdim7/A', 'A:min', 'B:hdim7/A', 'A:min']]</t>
+          <t>['E', 'E/3', 'A', 'E/5', 'B']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:55.800000', '0:01:04.680000')]</t>
+          <t>('0:00:41.649000', '0:00:49.404000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:06.860000', '0:00:25.500000')]</t>
+          <t>('0:00:27.610855', '0:00:32.322199')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=55.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=41.649</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=6.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=27.610855</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C/5', 'G', 'C', 'G/3']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:12.380000', '0:02:14.600000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:27.476822', '0:00:36.159841')]</t>
+          <t>('0:00:01', '0:00:05.360000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=132.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-59#t=27.476822']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1088,98 +1138,104 @@
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
+          <t>('0:00:10.953139', '0:00:19.672232')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:07.840000', '0:00:11.420000')]</t>
+          <t>('0:00:02.560000', '0:00:21.440000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-255#t=27.789047']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=7.84']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>isophonics_244</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>isophonics_70</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min', 'C', 'F']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:min', 'G', 'C']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:07.600000', '0:00:17.160000')]</t>
+          <t>('0:00:44.859274', '0:00:49.758684')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:01:20.956000', '0:01:25.176000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=7.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-244#t=44.859274</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=80.956</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
